--- a/birdsong/birdsong_database.xlsx
+++ b/birdsong/birdsong_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>551419.mp3</t>
+          <t>551413.mp3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>551421.mp3</t>
+          <t>551417.mp3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -517,14 +517,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>551420.mp3</t>
+          <t>551416.mp3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -539,14 +539,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>551413.mp3</t>
+          <t>551414.mp3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>551417.mp3</t>
+          <t>551415.mp3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -583,24 +583,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>551416.mp3</t>
+          <t>551455.mp3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>American Redstart</t>
+          <t>Bay-breasted Warbler</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Setophaga ruticilla</t>
+          <t>Setophaga castanea</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>551414.mp3</t>
+          <t>551456.mp3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>American Redstart</t>
+          <t>Bay-breasted Warbler</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Setophaga ruticilla</t>
+          <t>Setophaga castanea</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>551415.mp3</t>
+          <t>551457.mp3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>American Redstart</t>
+          <t>Bay-breasted Warbler</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Setophaga ruticilla</t>
+          <t>Setophaga castanea</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>551455.mp3</t>
+          <t>544789.mp3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -671,14 +671,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>551456.mp3</t>
+          <t>551458.mp3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>551457.mp3</t>
+          <t>551296.mp3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bay-breasted Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Setophaga castanea</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,61 +722,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>544789.mp3</t>
+          <t>551295.mp3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bay-breasted Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Setophaga castanea</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>551458.mp3</t>
+          <t>551294.mp3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bay-breasted Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Setophaga castanea</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>551296.mp3</t>
+          <t>551490.mp3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,17 +788,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>551297.mp3</t>
+          <t>551491.mp3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,17 +810,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>551295.mp3</t>
+          <t>551492.mp3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,171 +832,171 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>551294.mp3</t>
+          <t>551496.mp3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>551300.mp3</t>
+          <t>551489.mp3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>551299.mp3</t>
+          <t>551593.mp3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>551298.mp3</t>
+          <t>551587.mp3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>551490.mp3</t>
+          <t>551592.mp3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>551491.mp3</t>
+          <t>551590.mp3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>551493.mp3</t>
+          <t>551588.mp3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>551492.mp3</t>
+          <t>551589.mp3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,83 +1008,83 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>551496.mp3</t>
+          <t>551484.mp3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>551495.mp3</t>
+          <t>551485.mp3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>551494.mp3</t>
+          <t>551487.mp3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>551489.mp3</t>
+          <t>551486.mp3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1096,127 +1096,127 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>551593.mp3</t>
+          <t>551483.mp3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>551587.mp3</t>
+          <t>551488.mp3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>551592.mp3</t>
+          <t>551291.mp3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>551590.mp3</t>
+          <t>551293.mp3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>551591.mp3</t>
+          <t>551287.mp3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>551588.mp3</t>
+          <t>551286.mp3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,17 +1228,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>551589.mp3</t>
+          <t>551288.mp3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1250,17 +1250,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>551484.mp3</t>
+          <t>551599.mp3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,61 +1272,61 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>551485.mp3</t>
+          <t>551604.mp3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>551487.mp3</t>
+          <t>551605.mp3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>551486.mp3</t>
+          <t>551600.mp3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1338,17 +1338,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>551483.mp3</t>
+          <t>551430.mp3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1360,127 +1360,127 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>551488.mp3</t>
+          <t>551431.mp3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>551290.mp3</t>
+          <t>551427.mp3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>551291.mp3</t>
+          <t>551428.mp3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>551293.mp3</t>
+          <t>551429.mp3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>551287.mp3</t>
+          <t>553921.mp3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>551286.mp3</t>
+          <t>551433.mp3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1492,61 +1492,61 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>551292.mp3</t>
+          <t>551436.mp3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>551288.mp3</t>
+          <t>551437.mp3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>551289.mp3</t>
+          <t>551435.mp3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1558,17 +1558,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>551599.mp3</t>
+          <t>551434.mp3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1580,61 +1580,61 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>551604.mp3</t>
+          <t>551438.mp3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>551605.mp3</t>
+          <t>551474.mp3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>551601.mp3</t>
+          <t>551475.mp3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1646,17 +1646,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>551600.mp3</t>
+          <t>551476.mp3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1668,17 +1668,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>551602.mp3</t>
+          <t>551397.mp3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1690,83 +1690,83 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>551603.mp3</t>
+          <t>551393.mp3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>551430.mp3</t>
+          <t>551402.mp3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>551431.mp3</t>
+          <t>551400.mp3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>551427.mp3</t>
+          <t>551399.mp3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1778,83 +1778,83 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>551428.mp3</t>
+          <t>551398.mp3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>551429.mp3</t>
+          <t>551401.mp3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>553921.mp3</t>
+          <t>551363.mp3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>551433.mp3</t>
+          <t>551362.mp3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1866,83 +1866,83 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>551436.mp3</t>
+          <t>551361.mp3</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>551437.mp3</t>
+          <t>551365.mp3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>551435.mp3</t>
+          <t>551364.mp3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>551434.mp3</t>
+          <t>551282.mp3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1954,39 +1954,39 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>551438.mp3</t>
+          <t>551283.mp3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>551478.mp3</t>
+          <t>551281.mp3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1998,105 +1998,105 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>551479.mp3</t>
+          <t>551280.mp3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>551482.mp3</t>
+          <t>551284.mp3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>551481.mp3</t>
+          <t>551285.mp3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>551480.mp3</t>
+          <t>551278.mp3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>551474.mp3</t>
+          <t>551279.mp3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2108,17 +2108,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>551475.mp3</t>
+          <t>551409.mp3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2130,17 +2130,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>551477.mp3</t>
+          <t>551408.mp3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2152,17 +2152,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>551476.mp3</t>
+          <t>551406.mp3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2174,17 +2174,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>551395.mp3</t>
+          <t>551387.mp3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2196,17 +2196,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>551394.mp3</t>
+          <t>551386.mp3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2218,61 +2218,61 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>551396.mp3</t>
+          <t>551392.mp3</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>551397.mp3</t>
+          <t>551391.mp3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>551393.mp3</t>
+          <t>551388.mp3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2284,215 +2284,215 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>551405.mp3</t>
+          <t>551269.mp3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>551404.mp3</t>
+          <t>551268.mp3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>551403.mp3</t>
+          <t>551263.mp3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>551402.mp3</t>
+          <t>551262.mp3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>551400.mp3</t>
+          <t>551266.mp3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>551399.mp3</t>
+          <t>551267.mp3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>551398.mp3</t>
+          <t>551265.mp3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>551401.mp3</t>
+          <t>551264.mp3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>551363.mp3</t>
+          <t>551270.mp3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>551362.mp3</t>
+          <t>551447.mp3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2504,17 +2504,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>551361.mp3</t>
+          <t>551446.mp3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,105 +2526,105 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>551365.mp3</t>
+          <t>551450.mp3</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>551364.mp3</t>
+          <t>551451.mp3</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>551282.mp3</t>
+          <t>551454.mp3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>551283.mp3</t>
+          <t>551448.mp3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>551281.mp3</t>
+          <t>551449.mp3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2636,17 +2636,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>551280.mp3</t>
+          <t>551381.mp3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2658,83 +2658,83 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>551284.mp3</t>
+          <t>551380.mp3</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>551285.mp3</t>
+          <t>551382.mp3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>551278.mp3</t>
+          <t>551383.mp3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>551279.mp3</t>
+          <t>551378.mp3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,17 +2746,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>551409.mp3</t>
+          <t>551379.mp3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,105 +2768,105 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>551408.mp3</t>
+          <t>551384.mp3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>551411.mp3</t>
+          <t>551385.mp3</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>551410.mp3</t>
+          <t>551377.mp3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>551412.mp3</t>
+          <t>551376.mp3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>551406.mp3</t>
+          <t>551374.mp3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2878,17 +2878,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>551407.mp3</t>
+          <t>551375.mp3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2900,83 +2900,83 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>551387.mp3</t>
+          <t>551342.mp3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (ruficapilla)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>551386.mp3</t>
+          <t>551354.mp3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls (ridgwayi)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>551392.mp3</t>
+          <t>551350.mp3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song (ridgwayi)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>551390.mp3</t>
+          <t>551444.mp3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2988,39 +2988,39 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>551391.mp3</t>
+          <t>551445.mp3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>551388.mp3</t>
+          <t>551441.mp3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3032,83 +3032,83 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>551389.mp3</t>
+          <t>551440.mp3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>551269.mp3</t>
+          <t>551442.mp3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>551268.mp3</t>
+          <t>551443.mp3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>551263.mp3</t>
+          <t>551439.mp3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3120,105 +3120,105 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>551262.mp3</t>
+          <t>551274.mp3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>551266.mp3</t>
+          <t>551275.mp3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>551267.mp3</t>
+          <t>551277.mp3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>551265.mp3</t>
+          <t>551276.mp3</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>551264.mp3</t>
+          <t>551272.mp3</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3230,39 +3230,39 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>551270.mp3</t>
+          <t>551273.mp3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>551447.mp3</t>
+          <t>551271.mp3</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3274,413 +3274,385 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>551453.mp3</t>
+          <t>551254.mp3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>551452.mp3</t>
+          <t>551253.mp3</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>551446.mp3</t>
+          <t>551252.mp3</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>551450.mp3</t>
+          <t>551250.mp3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>551451.mp3</t>
+          <t>551251.mp3</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>551454.mp3</t>
+          <t>551249.mp3</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>551448.mp3</t>
+          <t>551497.mp3</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Western)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>551449.mp3</t>
+          <t>551508.mp3</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>551381.mp3</t>
+          <t>538325.mp3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>551380.mp3</t>
+          <t>551512.mp3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>551382.mp3</t>
+          <t>551513.mp3</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Flight song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>551383.mp3</t>
+          <t>551510.mp3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>551378.mp3</t>
+          <t>551514.mp3</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>551379.mp3</t>
+          <t>551515.mp3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>551384.mp3</t>
+          <t>551544.mp3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>551385.mp3</t>
+          <t>551545.mp3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>551377.mp3</t>
+          <t>551547.mp3</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>551376.mp3</t>
+          <t>551546.mp3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>551374.mp3</t>
+          <t>551542.mp3</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3692,17 +3664,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>551375.mp3</t>
+          <t>551543.mp3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3714,347 +3686,347 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>551342.mp3</t>
+          <t>551541.mp3</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Song (ruficapilla)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>551343.mp3</t>
+          <t>551301.mp3</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Protonotaria citrea</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Song (ruficapilla)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>551354.mp3</t>
+          <t>551320.mp3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Leiothlypis peregrina</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tink calls (ridgwayi)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>551350.mp3</t>
+          <t>551319.mp3</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Leiothlypis peregrina</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Song (ridgwayi)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>551344.mp3</t>
+          <t>551608.mp3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Song (ruficapilla)</t>
+          <t>Song (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>551345.mp3</t>
+          <t>551609.mp3</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Song (ruficapilla)</t>
+          <t>Chip calls (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>551351.mp3</t>
+          <t>551607.mp3</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Song (ridgwayi)</t>
+          <t>Song (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>551347.mp3</t>
+          <t>551612.mp3</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tink calls (ruficapilla)</t>
+          <t>Song (pusilla)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>551353.mp3</t>
+          <t>551606.mp3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Calls (ridgwayi)</t>
+          <t>Song (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>551352.mp3</t>
+          <t>551610.mp3</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Dawn song (ridgwayi)</t>
+          <t>Song (pusilla)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>551346.mp3</t>
+          <t>551611.mp3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Calls (ruficapilla)</t>
+          <t>Song (pusilla)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>551348.mp3</t>
+          <t>551615.mp3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Flight calls (ruficapilla)</t>
+          <t>Song (chryseola)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>551349.mp3</t>
+          <t>551614.mp3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Song (ridgwayi)</t>
+          <t>Song (chryseola)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>551444.mp3</t>
+          <t>551616.mp3</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song (chryseola)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>551445.mp3</t>
+          <t>551255.mp3</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>551441.mp3</t>
+          <t>551256.mp3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4066,795 +4038,831 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>551440.mp3</t>
+          <t>551260.mp3</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>551442.mp3</t>
+          <t>551261.mp3</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>551443.mp3</t>
+          <t>551259.mp3</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>551439.mp3</t>
+          <t>536958.mp3</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Golden)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>551274.mp3</t>
+          <t>542001.mp3</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Calls (Galapagos)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>551275.mp3</t>
+          <t>536960.mp3</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Flight calls (Golden)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>551277.mp3</t>
+          <t>551469.mp3</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>551276.mp3</t>
+          <t>526843.mp3</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song (Mangrove)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>551272.mp3</t>
+          <t>536953.mp3</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>551273.mp3</t>
+          <t>551472.mp3</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>551271.mp3</t>
+          <t>551473.mp3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Juvenile calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>551254.mp3</t>
+          <t>536952.mp3</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>551253.mp3</t>
+          <t>551471.mp3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Tink calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>551252.mp3</t>
+          <t>551470.mp3</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>551250.mp3</t>
+          <t>536955.mp3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>551251.mp3</t>
+          <t>536954.mp3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Dawn song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>551249.mp3</t>
+          <t>532891.mp3</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Galapagos)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>551497.mp3</t>
+          <t>536957.mp3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Song (Western)</t>
+          <t>Song (Golden)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>551506.mp3</t>
+          <t>551533.mp3</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Chip calls (Yellow)</t>
+          <t>Chip calls (Goldman's)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>551499.mp3</t>
+          <t>551527.mp3</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Song (Western)</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>551498.mp3</t>
+          <t>551526.mp3</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Song (Western)</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>551507.mp3</t>
+          <t>551532.mp3</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Tink calls (Yellow)</t>
+          <t>Song (Goldman's)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>551505.mp3</t>
+          <t>551518.mp3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Song (Yellow)</t>
+          <t>Song (Myrtle)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>551504.mp3</t>
+          <t>551524.mp3</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Song (Yellow)</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>551500.mp3</t>
+          <t>551530.mp3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Chip calls (Western)</t>
+          <t>Flight calls (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>551501.mp3</t>
+          <t>551531.mp3</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Flight calls (Western)</t>
+          <t>Song (Goldman's)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>551503.mp3</t>
+          <t>551525.mp3</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Song (Yellow)</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>551502.mp3</t>
+          <t>551519.mp3</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Song (Yellow)</t>
+          <t>Song (Myrtle)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>551509.mp3</t>
+          <t>551521.mp3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Chip calls (Myrtle)</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>551508.mp3</t>
+          <t>551520.mp3</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>538325.mp3</t>
+          <t>551522.mp3</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Tink calls (Myrtle)</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>551512.mp3</t>
+          <t>551523.mp3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Flight calls (Myrtle)</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>551513.mp3</t>
+          <t>551528.mp3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Chip calls (Audubon's)</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>551511.mp3</t>
+          <t>551529.mp3</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Tink calls (Audubon's)</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>551510.mp3</t>
+          <t>551517.mp3</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>551514.mp3</t>
+          <t>551516.mp3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>551515.mp3</t>
+          <t>551535.mp3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Yellow-throated Warbler</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>551544.mp3</t>
+          <t>551534.mp3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Yellow-throated Warbler</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Setophaga dominica</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4866,1802 +4874,86 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>551545.mp3</t>
+          <t>551536.mp3</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Yellow-throated Warbler</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Setophaga dominica</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>551547.mp3</t>
+          <t>551537.mp3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Yellow-throated Warbler</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Setophaga dominica</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>551546.mp3</t>
+          <t>551540.mp3</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Yellow-throated Warbler</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Setophaga dominica</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>551542.mp3</t>
+          <t>551538.mp3</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Yellow-throated Warbler</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Setophaga dominica</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>551543.mp3</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Prairie Warbler</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>551541.mp3</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Prairie Warbler</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>551309.mp3</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>551308.mp3</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>551301.mp3</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>551303.mp3</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>551302.mp3</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>551306.mp3</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>551307.mp3</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>551305.mp3</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Flight song</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>551304.mp3</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Prothonotary Warbler</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Dawn song</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>551321.mp3</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Tennessee Warbler</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>551320.mp3</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Tennessee Warbler</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>551322.mp3</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Tennessee Warbler</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>551323.mp3</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Tennessee Warbler</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>551324.mp3</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Tennessee Warbler</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>551319.mp3</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Tennessee Warbler</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>551618.mp3</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Flight calls (chryseola)</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>551608.mp3</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>551609.mp3</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Chip calls (pileolata)</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>551607.mp3</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>551612.mp3</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>551606.mp3</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>551610.mp3</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>551611.mp3</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>551615.mp3</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>551614.mp3</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>551616.mp3</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>551617.mp3</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Wilson's Warbler</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Chip calls (chryseola)</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>551255.mp3</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>551256.mp3</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>551257.mp3</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>551260.mp3</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>551261.mp3</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>551259.mp3</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>551258.mp3</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Worm-eating Warbler</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Flight song</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>536959.mp3</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Calls (Golden)</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>536958.mp3</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Song (Golden)</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>542001.mp3</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Calls (Galapagos)</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>536960.mp3</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Flight calls (Golden)</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>551469.mp3</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>526843.mp3</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Song (Mangrove)</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>526844.mp3</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Calls (Mangrove)</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>536953.mp3</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>551472.mp3</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Flight calls (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>551473.mp3</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Juvenile calls (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>536952.mp3</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>551471.mp3</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Tink calls (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>551470.mp3</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>536955.mp3</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Calls (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>536954.mp3</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Dawn song (Northern)</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>532891.mp3</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Song (Galapagos)</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>536957.mp3</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Yellow Warbler</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Song (Golden)</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>551533.mp3</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Chip calls (Goldman's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>551527.mp3</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>551526.mp3</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>551532.mp3</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Song (Goldman's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>551518.mp3</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>551524.mp3</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>551530.mp3</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Flight calls (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>551531.mp3</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Song (Goldman's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>551525.mp3</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>551519.mp3</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>551521.mp3</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Chip calls (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>551520.mp3</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>551522.mp3</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Tink calls (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>551523.mp3</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Flight calls (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>551528.mp3</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Chip calls (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>551529.mp3</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Tink calls (Audubon's)</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>551517.mp3</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>551516.mp3</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Yellow-rumped Warbler</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>551535.mp3</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>551534.mp3</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>551536.mp3</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>551537.mp3</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Dawn song</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>551540.mp3</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>551539.mp3</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>551538.mp3</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Yellow-throated Warbler</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
         <is>
           <t>Chip calls</t>
         </is>

--- a/birdsong/birdsong_database.xlsx
+++ b/birdsong/birdsong_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>551413.mp3</t>
+          <t>551419.mp3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,16 +493,12 @@
           <t>Setophaga ruticilla</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>551417.mp3</t>
+          <t>551421.mp3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -515,16 +511,12 @@
           <t>Setophaga ruticilla</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Dawn song</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>551416.mp3</t>
+          <t>551420.mp3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -537,16 +529,12 @@
           <t>Setophaga ruticilla</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>551414.mp3</t>
+          <t>551413.mp3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -568,7 +556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>551415.mp3</t>
+          <t>551417.mp3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -583,24 +571,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>551455.mp3</t>
+          <t>551416.mp3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bay-breasted Warbler</t>
+          <t>American Redstart</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Setophaga castanea</t>
+          <t>Setophaga ruticilla</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +600,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>551456.mp3</t>
+          <t>551414.mp3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bay-breasted Warbler</t>
+          <t>American Redstart</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Setophaga castanea</t>
+          <t>Setophaga ruticilla</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +622,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>551457.mp3</t>
+          <t>551415.mp3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bay-breasted Warbler</t>
+          <t>American Redstart</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Setophaga castanea</t>
+          <t>Setophaga ruticilla</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,7 +644,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>544789.mp3</t>
+          <t>551455.mp3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -671,14 +659,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>551458.mp3</t>
+          <t>551456.mp3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,24 +681,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>551296.mp3</t>
+          <t>551457.mp3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Bay-breasted Warbler</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga castanea</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,61 +710,61 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>551295.mp3</t>
+          <t>544789.mp3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Bay-breasted Warbler</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga castanea</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>551294.mp3</t>
+          <t>551458.mp3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Black-and-white Warbler</t>
+          <t>Bay-breasted Warbler</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mniotilta varia</t>
+          <t>Setophaga castanea</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>551490.mp3</t>
+          <t>551296.mp3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,17 +776,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>551491.mp3</t>
+          <t>551295.mp3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,17 +798,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>551492.mp3</t>
+          <t>551294.mp3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,7 +820,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>551496.mp3</t>
+          <t>551490.mp3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -847,14 +835,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>551489.mp3</t>
+          <t>551491.mp3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -876,39 +864,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>551593.mp3</t>
+          <t>551493.mp3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga caerulescens</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>551587.mp3</t>
+          <t>551492.mp3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,83 +904,75 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>551592.mp3</t>
+          <t>551496.mp3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>551590.mp3</t>
+          <t>551495.mp3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Dawn song</t>
-        </is>
-      </c>
+          <t>Setophaga caerulescens</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>551588.mp3</t>
+          <t>551494.mp3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga caerulescens</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>551589.mp3</t>
+          <t>551489.mp3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,39 +984,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>551484.mp3</t>
+          <t>551593.mp3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>551485.mp3</t>
+          <t>551587.mp3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1052,303 +1028,267 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>551487.mp3</t>
+          <t>551592.mp3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>551486.mp3</t>
+          <t>551590.mp3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>551483.mp3</t>
+          <t>551591.mp3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga virens</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>551488.mp3</t>
+          <t>551588.mp3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>551291.mp3</t>
+          <t>551589.mp3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>551293.mp3</t>
+          <t>551468.mp3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>551287.mp3</t>
+          <t>551467.mp3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>551286.mp3</t>
+          <t>551459.mp3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>551288.mp3</t>
+          <t>551464.mp3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>551599.mp3</t>
+          <t>551460.mp3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>551604.mp3</t>
+          <t>551461.mp3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Calls</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>551605.mp3</t>
+          <t>551463.mp3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>551600.mp3</t>
+          <t>551462.mp3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>551430.mp3</t>
+          <t>551484.mp3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1360,61 +1300,61 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>551431.mp3</t>
+          <t>551485.mp3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>551427.mp3</t>
+          <t>551487.mp3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>551428.mp3</t>
+          <t>551486.mp3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1426,17 +1366,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>551429.mp3</t>
+          <t>551483.mp3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1448,17 +1388,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>553921.mp3</t>
+          <t>551488.mp3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1470,83 +1410,79 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>551433.mp3</t>
+          <t>551290.mp3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Vermivora cyanoptera</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>551436.mp3</t>
+          <t>551291.mp3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>551437.mp3</t>
+          <t>551293.mp3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>551435.mp3</t>
+          <t>551287.mp3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1558,17 +1494,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>551434.mp3</t>
+          <t>551286.mp3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1580,61 +1516,57 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>551438.mp3</t>
+          <t>551288.mp3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>551474.mp3</t>
+          <t>551289.mp3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Vermivora cyanoptera</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>551475.mp3</t>
+          <t>551599.mp3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1646,193 +1578,181 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>551476.mp3</t>
+          <t>551604.mp3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>551397.mp3</t>
+          <t>551605.mp3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>551393.mp3</t>
+          <t>551601.mp3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Cardellina canadensis</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>551402.mp3</t>
+          <t>551600.mp3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>551400.mp3</t>
+          <t>551602.mp3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+          <t>Cardellina canadensis</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>551399.mp3</t>
+          <t>551603.mp3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Cardellina canadensis</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>551398.mp3</t>
+          <t>551430.mp3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>551401.mp3</t>
+          <t>551431.mp3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>551363.mp3</t>
+          <t>551427.mp3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1844,17 +1764,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>551362.mp3</t>
+          <t>551428.mp3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1866,17 +1786,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>551361.mp3</t>
+          <t>551429.mp3</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1888,17 +1808,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>551365.mp3</t>
+          <t>553921.mp3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1910,83 +1830,83 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>551364.mp3</t>
+          <t>551433.mp3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>551282.mp3</t>
+          <t>551436.mp3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>551283.mp3</t>
+          <t>551437.mp3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>551281.mp3</t>
+          <t>551435.mp3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1998,17 +1918,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>551280.mp3</t>
+          <t>551434.mp3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2020,127 +1940,111 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>551284.mp3</t>
+          <t>551438.mp3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>551285.mp3</t>
+          <t>551478.mp3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga pensylvanica</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>551278.mp3</t>
+          <t>551482.mp3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pensylvanica</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>551279.mp3</t>
+          <t>551481.mp3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pensylvanica</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>551409.mp3</t>
+          <t>551480.mp3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pensylvanica</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>551408.mp3</t>
+          <t>551474.mp3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2152,17 +2056,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>551406.mp3</t>
+          <t>551475.mp3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2174,39 +2078,35 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>551387.mp3</t>
+          <t>551477.mp3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pensylvanica</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>551386.mp3</t>
+          <t>551476.mp3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2218,193 +2118,169 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>551392.mp3</t>
+          <t>551395.mp3</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>551391.mp3</t>
+          <t>551394.mp3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>551388.mp3</t>
+          <t>551396.mp3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>551269.mp3</t>
+          <t>551397.mp3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>551268.mp3</t>
+          <t>551393.mp3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>551263.mp3</t>
+          <t>551405.mp3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>551262.mp3</t>
+          <t>551404.mp3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>551266.mp3</t>
+          <t>551403.mp3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>551267.mp3</t>
+          <t>551402.mp3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2416,39 +2292,39 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>551265.mp3</t>
+          <t>551400.mp3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>551264.mp3</t>
+          <t>551399.mp3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,61 +2336,61 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>551270.mp3</t>
+          <t>551398.mp3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>551447.mp3</t>
+          <t>551401.mp3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>551446.mp3</t>
+          <t>551363.mp3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,61 +2402,61 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>551450.mp3</t>
+          <t>551362.mp3</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>551451.mp3</t>
+          <t>551361.mp3</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>551454.mp3</t>
+          <t>551365.mp3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2592,39 +2468,39 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>551448.mp3</t>
+          <t>551364.mp3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>551449.mp3</t>
+          <t>551282.mp3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2636,39 +2512,39 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>551381.mp3</t>
+          <t>551283.mp3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>551380.mp3</t>
+          <t>551281.mp3</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,83 +2556,83 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>551382.mp3</t>
+          <t>551280.mp3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>551383.mp3</t>
+          <t>551284.mp3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>551378.mp3</t>
+          <t>551285.mp3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>551379.mp3</t>
+          <t>551278.mp3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,61 +2644,61 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>551384.mp3</t>
+          <t>551279.mp3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>551385.mp3</t>
+          <t>551409.mp3</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>551377.mp3</t>
+          <t>551408.mp3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2834,171 +2710,155 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>551376.mp3</t>
+          <t>551411.mp3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>551374.mp3</t>
+          <t>551410.mp3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>551375.mp3</t>
+          <t>551412.mp3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>551342.mp3</t>
+          <t>551406.mp3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Song (ruficapilla)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>551354.mp3</t>
+          <t>551407.mp3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Tink calls (ridgwayi)</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>551350.mp3</t>
+          <t>551387.mp3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Song (ridgwayi)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>551444.mp3</t>
+          <t>551386.mp3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>551445.mp3</t>
+          <t>551392.mp3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3010,39 +2870,39 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>551441.mp3</t>
+          <t>551391.mp3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>551440.mp3</t>
+          <t>551388.mp3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3054,61 +2914,61 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>551442.mp3</t>
+          <t>551269.mp3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>551443.mp3</t>
+          <t>551268.mp3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>551439.mp3</t>
+          <t>551263.mp3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3120,105 +2980,105 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>551274.mp3</t>
+          <t>551262.mp3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>551275.mp3</t>
+          <t>551266.mp3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>551277.mp3</t>
+          <t>551267.mp3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>551276.mp3</t>
+          <t>551265.mp3</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>551272.mp3</t>
+          <t>551264.mp3</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3230,39 +3090,39 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>551273.mp3</t>
+          <t>551270.mp3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>551271.mp3</t>
+          <t>551447.mp3</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3274,385 +3134,405 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>551254.mp3</t>
+          <t>551453.mp3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga magnolia</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>551253.mp3</t>
+          <t>551452.mp3</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
+          <t>Setophaga magnolia</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>551252.mp3</t>
+          <t>551446.mp3</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>551250.mp3</t>
+          <t>551450.mp3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>551251.mp3</t>
+          <t>551451.mp3</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>551249.mp3</t>
+          <t>551454.mp3</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>551497.mp3</t>
+          <t>551448.mp3</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Song (Western)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>551508.mp3</t>
+          <t>551449.mp3</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>Setophaga magnolia</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>538325.mp3</t>
+          <t>551381.mp3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>551512.mp3</t>
+          <t>551380.mp3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>551513.mp3</t>
+          <t>551382.mp3</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Flight song</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>551510.mp3</t>
+          <t>551383.mp3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Chip calls</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>551514.mp3</t>
+          <t>551378.mp3</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>551515.mp3</t>
+          <t>551379.mp3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>551544.mp3</t>
+          <t>551384.mp3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>551545.mp3</t>
+          <t>551385.mp3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>551547.mp3</t>
+          <t>551377.mp3</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>551546.mp3</t>
+          <t>551376.mp3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>551542.mp3</t>
+          <t>551374.mp3</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3664,17 +3544,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>551543.mp3</t>
+          <t>551375.mp3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3686,347 +3566,307 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>551541.mp3</t>
+          <t>551342.mp3</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
+          <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (ruficapilla)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>551301.mp3</t>
+          <t>551343.mp3</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Prothonotary Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>551320.mp3</t>
+          <t>551354.mp3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
+          <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls (ridgwayi)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>551319.mp3</t>
+          <t>551350.mp3</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
+          <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (ridgwayi)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>551608.mp3</t>
+          <t>551344.mp3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>551609.mp3</t>
+          <t>551345.mp3</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Chip calls (pileolata)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>551607.mp3</t>
+          <t>551351.mp3</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>551612.mp3</t>
+          <t>551347.mp3</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>551606.mp3</t>
+          <t>551353.mp3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>551610.mp3</t>
+          <t>551352.mp3</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>551611.mp3</t>
+          <t>551346.mp3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>551615.mp3</t>
+          <t>551348.mp3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>551614.mp3</t>
+          <t>551349.mp3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>551616.mp3</t>
+          <t>551444.mp3</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Song (chryseola)</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>551255.mp3</t>
+          <t>551445.mp3</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>551256.mp3</t>
+          <t>551441.mp3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4038,809 +3878,737 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>551260.mp3</t>
+          <t>551440.mp3</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>551261.mp3</t>
+          <t>551442.mp3</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>551259.mp3</t>
+          <t>551443.mp3</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>536958.mp3</t>
+          <t>551439.mp3</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Song (Golden)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>542001.mp3</t>
+          <t>551274.mp3</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Calls (Galapagos)</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>536960.mp3</t>
+          <t>551275.mp3</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Flight calls (Golden)</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>551469.mp3</t>
+          <t>551277.mp3</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Song (Northern)</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>526843.mp3</t>
+          <t>551276.mp3</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Song (Mangrove)</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>536953.mp3</t>
+          <t>551272.mp3</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Song (Northern)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>551472.mp3</t>
+          <t>551273.mp3</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Flight calls (Northern)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>551473.mp3</t>
+          <t>551271.mp3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Juvenile calls (Northern)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>536952.mp3</t>
+          <t>551325.mp3</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Orange-crowned Warbler</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
+          <t>Leiothlypis celata</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>551471.mp3</t>
+          <t>551254.mp3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tink calls (Northern)</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>551470.mp3</t>
+          <t>551253.mp3</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Song (Northern)</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>536955.mp3</t>
+          <t>551252.mp3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Calls (Northern)</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>536954.mp3</t>
+          <t>551250.mp3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Dawn song (Northern)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>532891.mp3</t>
+          <t>551251.mp3</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Song (Galapagos)</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>536957.mp3</t>
+          <t>551249.mp3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Seiurus aurocapilla</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Song (Golden)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>551533.mp3</t>
+          <t>551497.mp3</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Chip calls (Goldman's)</t>
+          <t>Song (Western)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>551527.mp3</t>
+          <t>551506.mp3</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>551526.mp3</t>
+          <t>551499.mp3</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>551532.mp3</t>
+          <t>551498.mp3</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Song (Goldman's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>551518.mp3</t>
+          <t>551507.mp3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>551524.mp3</t>
+          <t>551505.mp3</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>551530.mp3</t>
+          <t>551504.mp3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Flight calls (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>551531.mp3</t>
+          <t>551500.mp3</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Song (Goldman's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>551525.mp3</t>
+          <t>551501.mp3</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Song (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>551519.mp3</t>
+          <t>551503.mp3</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>551521.mp3</t>
+          <t>551502.mp3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Chip calls (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>551520.mp3</t>
+          <t>551508.mp3</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>551522.mp3</t>
+          <t>538325.mp3</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Tink calls (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>551523.mp3</t>
+          <t>551512.mp3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Flight calls (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>551528.mp3</t>
+          <t>551513.mp3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Chip calls (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>551529.mp3</t>
+          <t>551510.mp3</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Tink calls (Audubon's)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>551517.mp3</t>
+          <t>551514.mp3</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>551516.mp3</t>
+          <t>551515.mp3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>551535.mp3</t>
+          <t>551544.mp3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4852,108 +4620,1618 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>551534.mp3</t>
+          <t>551545.mp3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>551536.mp3</t>
+          <t>551547.mp3</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>551537.mp3</t>
+          <t>551546.mp3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>551540.mp3</t>
+          <t>551542.mp3</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>551543.mp3</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Prairie Warbler</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>551541.mp3</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Prairie Warbler</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>551308.mp3</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Prothonotary Warbler</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>551301.mp3</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Prothonotary Warbler</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>551302.mp3</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Prothonotary Warbler</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>551304.mp3</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Prothonotary Warbler</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>551321.mp3</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Tennessee Warbler</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>551320.mp3</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Tennessee Warbler</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>551322.mp3</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Tennessee Warbler</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>551324.mp3</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Tennessee Warbler</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>551319.mp3</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Tennessee Warbler</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>551618.mp3</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>551608.mp3</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Song (pileolata)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>551609.mp3</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Chip calls (pileolata)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>551607.mp3</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Song (pileolata)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>551612.mp3</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Song (pusilla)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>551606.mp3</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Song (pileolata)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>551610.mp3</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Song (pusilla)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>551611.mp3</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Song (pusilla)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>551615.mp3</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Song (chryseola)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>551614.mp3</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Song (chryseola)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>551616.mp3</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Song (chryseola)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>551617.mp3</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Wilson's Warbler</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>551255.mp3</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>551256.mp3</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>551257.mp3</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>551260.mp3</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Tink calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>551261.mp3</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Flight calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>551259.mp3</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Chip calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>551258.mp3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Worm-eating Warbler</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>536959.mp3</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>536958.mp3</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Song (Golden)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>542001.mp3</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Calls (Galapagos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>536960.mp3</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Flight calls (Golden)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>551469.mp3</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Song (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>526843.mp3</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Song (Mangrove)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>526844.mp3</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>536953.mp3</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Song (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>551472.mp3</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Flight calls (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>551473.mp3</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Juvenile calls (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>536952.mp3</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Song (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>551471.mp3</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Tink calls (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>551470.mp3</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Song (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>536955.mp3</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Calls (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>536954.mp3</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Dawn song (Northern)</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>532891.mp3</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Song (Galapagos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>536957.mp3</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Yellow Warbler</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Song (Golden)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>551533.mp3</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Chip calls (Goldman's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>551527.mp3</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Song (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>551526.mp3</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Song (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>551532.mp3</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Song (Goldman's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>551518.mp3</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>551524.mp3</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Song (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>551530.mp3</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Flight calls (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>551531.mp3</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Song (Goldman's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>551525.mp3</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Song (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>551519.mp3</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>551521.mp3</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Chip calls (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>551520.mp3</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>551522.mp3</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Tink calls (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>551523.mp3</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Flight calls (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>551528.mp3</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Chip calls (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>551529.mp3</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Tink calls (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>551517.mp3</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>551516.mp3</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>551535.mp3</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>551534.mp3</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>551536.mp3</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>551537.mp3</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Dawn song</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>551540.mp3</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Flight calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>551539.mp3</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
           <t>551538.mp3</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Yellow-throated Warbler</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>Setophaga dominica</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D278" t="inlineStr">
         <is>
           <t>Chip calls</t>
         </is>

--- a/birdsong/birdsong_database.xlsx
+++ b/birdsong/birdsong_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,7 +776,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>551295.mp3</t>
+          <t>551297.mp3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -789,16 +789,12 @@
           <t>Mniotilta varia</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>551294.mp3</t>
+          <t>551295.mp3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -820,17 +816,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>551490.mp3</t>
+          <t>551294.mp3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -842,39 +838,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>551491.mp3</t>
+          <t>551300.mp3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Mniotilta varia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>551493.mp3</t>
+          <t>551299.mp3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
+          <t>Mniotilta varia</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -882,29 +874,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>551492.mp3</t>
+          <t>551298.mp3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Black-throated Blue Warbler</t>
+          <t>Black-and-white Warbler</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Setophaga caerulescens</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Mniotilta varia</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>551496.mp3</t>
+          <t>551490.mp3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -919,14 +907,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>551495.mp3</t>
+          <t>551491.mp3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -939,12 +927,16 @@
           <t>Setophaga caerulescens</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>551494.mp3</t>
+          <t>551493.mp3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -962,7 +954,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>551489.mp3</t>
+          <t>551492.mp3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -984,17 +976,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>551593.mp3</t>
+          <t>551496.mp3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1006,73 +998,65 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>551587.mp3</t>
+          <t>551495.mp3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga caerulescens</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>551592.mp3</t>
+          <t>551494.mp3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
+          <t>Setophaga caerulescens</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>551590.mp3</t>
+          <t>551489.mp3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Black-throated Green Warbler</t>
+          <t>Black-throated Blue Warbler</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Setophaga virens</t>
+          <t>Setophaga caerulescens</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>551591.mp3</t>
+          <t>551593.mp3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1085,12 +1069,16 @@
           <t>Setophaga virens</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Flight calls</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>551588.mp3</t>
+          <t>551587.mp3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1112,7 +1100,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>551589.mp3</t>
+          <t>551592.mp3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1127,42 +1115,46 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>551468.mp3</t>
+          <t>551590.mp3</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Blackburnian Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Setophaga fusca</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Setophaga virens</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Dawn song</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>551467.mp3</t>
+          <t>551591.mp3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Blackburnian Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Setophaga fusca</t>
+          <t>Setophaga virens</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1170,43 +1162,51 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>551459.mp3</t>
+          <t>551588.mp3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Blackburnian Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Setophaga fusca</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Setophaga virens</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>551464.mp3</t>
+          <t>551589.mp3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Blackburnian Warbler</t>
+          <t>Black-throated Green Warbler</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Setophaga fusca</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Setophaga virens</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>551460.mp3</t>
+          <t>551468.mp3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>551461.mp3</t>
+          <t>551466.mp3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1242,7 +1242,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>551463.mp3</t>
+          <t>551467.mp3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>551462.mp3</t>
+          <t>551459.mp3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1278,211 +1278,191 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>551484.mp3</t>
+          <t>551465.mp3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>551485.mp3</t>
+          <t>551464.mp3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>551487.mp3</t>
+          <t>551460.mp3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>551486.mp3</t>
+          <t>551461.mp3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>551483.mp3</t>
+          <t>551463.mp3</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>551488.mp3</t>
+          <t>551462.mp3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackburnian Warbler</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga fusca</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>551290.mp3</t>
+          <t>551484.mp3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Setophaga striata</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>551291.mp3</t>
+          <t>551485.mp3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>551293.mp3</t>
+          <t>551487.mp3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>551287.mp3</t>
+          <t>551486.mp3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1494,17 +1474,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>551286.mp3</t>
+          <t>551483.mp3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1516,29 +1496,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>551288.mp3</t>
+          <t>551488.mp3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Blue-winged Warbler</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Vermivora cyanoptera</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>551289.mp3</t>
+          <t>551290.mp3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1556,101 +1536,105 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>551599.mp3</t>
+          <t>551291.mp3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>551604.mp3</t>
+          <t>551293.mp3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>551605.mp3</t>
+          <t>551287.mp3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>551601.mp3</t>
+          <t>551286.mp3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Vermivora cyanoptera</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>551600.mp3</t>
+          <t>551288.mp3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1662,17 +1646,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>551602.mp3</t>
+          <t>551289.mp3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Canada Warbler</t>
+          <t>Blue-winged Warbler</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cardellina canadensis</t>
+          <t>Vermivora cyanoptera</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1680,7 +1664,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>551603.mp3</t>
+          <t>551599.mp3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1693,88 +1677,88 @@
           <t>Cardellina canadensis</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>551430.mp3</t>
+          <t>551604.mp3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>551431.mp3</t>
+          <t>551605.mp3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>551427.mp3</t>
+          <t>551601.mp3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Cardellina canadensis</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>551428.mp3</t>
+          <t>551600.mp3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
+          <t>Cardellina canadensis</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1786,61 +1770,53 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>551429.mp3</t>
+          <t>551602.mp3</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Cardellina canadensis</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>553921.mp3</t>
+          <t>551603.mp3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cape May Warbler</t>
+          <t>Canada Warbler</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Setophaga tigrina</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Cardellina canadensis</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>551433.mp3</t>
+          <t>551430.mp3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1852,61 +1828,61 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>551436.mp3</t>
+          <t>551431.mp3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>551437.mp3</t>
+          <t>551427.mp3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>551435.mp3</t>
+          <t>551428.mp3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1918,17 +1894,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>551434.mp3</t>
+          <t>551429.mp3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1940,17 +1916,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>551438.mp3</t>
+          <t>553921.mp3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cerulean Warbler</t>
+          <t>Cape May Warbler</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Setophaga cerulea</t>
+          <t>Setophaga tigrina</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1962,89 +1938,105 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>551478.mp3</t>
+          <t>551433.mp3</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>Setophaga cerulea</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>551482.mp3</t>
+          <t>551436.mp3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>Setophaga cerulea</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Chip calls</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>551481.mp3</t>
+          <t>551437.mp3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>Setophaga cerulea</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tink calls</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>551480.mp3</t>
+          <t>551435.mp3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Setophaga cerulea</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>551474.mp3</t>
+          <t>551434.mp3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2056,29 +2048,29 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>551475.mp3</t>
+          <t>551438.mp3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chestnut-sided Warbler</t>
+          <t>Cerulean Warbler</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Setophaga pensylvanica</t>
+          <t>Setophaga cerulea</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>551477.mp3</t>
+          <t>551478.mp3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2096,7 +2088,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>551476.mp3</t>
+          <t>551479.mp3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2109,26 +2101,22 @@
           <t>Setophaga pensylvanica</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>551395.mp3</t>
+          <t>551482.mp3</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2136,17 +2124,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>551394.mp3</t>
+          <t>551481.mp3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2154,17 +2142,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>551396.mp3</t>
+          <t>551480.mp3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -2172,17 +2160,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>551397.mp3</t>
+          <t>551474.mp3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2194,17 +2182,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>551393.mp3</t>
+          <t>551475.mp3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2216,17 +2204,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>551405.mp3</t>
+          <t>551477.mp3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
+          <t>Setophaga pensylvanica</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -2234,25 +2222,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>551404.mp3</t>
+          <t>551476.mp3</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Common Yellowthroat</t>
+          <t>Chestnut-sided Warbler</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Geothlypis trichas</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>Setophaga pensylvanica</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>551403.mp3</t>
+          <t>551395.mp3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2270,7 +2262,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>551402.mp3</t>
+          <t>551394.mp3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2283,16 +2275,12 @@
           <t>Geothlypis trichas</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>551400.mp3</t>
+          <t>551396.mp3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2305,16 +2293,12 @@
           <t>Geothlypis trichas</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>551399.mp3</t>
+          <t>551397.mp3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2336,7 +2320,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>551398.mp3</t>
+          <t>551393.mp3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2351,14 +2335,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>551401.mp3</t>
+          <t>551405.mp3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2371,158 +2355,146 @@
           <t>Geothlypis trichas</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>551363.mp3</t>
+          <t>551404.mp3</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>551362.mp3</t>
+          <t>551403.mp3</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Geothlypis trichas</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>551361.mp3</t>
+          <t>551402.mp3</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>551365.mp3</t>
+          <t>551400.mp3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>551364.mp3</t>
+          <t>551399.mp3</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Connecticut Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Oporornis agilis</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>551282.mp3</t>
+          <t>551398.mp3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>551283.mp3</t>
+          <t>551401.mp3</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Common Yellowthroat</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Geothlypis trichas</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2534,17 +2506,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>551281.mp3</t>
+          <t>551363.mp3</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2556,17 +2528,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>551280.mp3</t>
+          <t>551362.mp3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2578,39 +2550,39 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>551284.mp3</t>
+          <t>551361.mp3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>551285.mp3</t>
+          <t>551365.mp3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2622,29 +2594,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>551278.mp3</t>
+          <t>551364.mp3</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Golden-winged Warbler</t>
+          <t>Connecticut Warbler</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Vermivora chrysoptera</t>
+          <t>Oporornis agilis</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>551279.mp3</t>
+          <t>551282.mp3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2666,39 +2638,39 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>551409.mp3</t>
+          <t>551283.mp3</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>551408.mp3</t>
+          <t>551281.mp3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2710,71 +2682,83 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>551411.mp3</t>
+          <t>551280.mp3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Vermivora chrysoptera</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>551410.mp3</t>
+          <t>551284.mp3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>Vermivora chrysoptera</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Tink calls</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>551412.mp3</t>
+          <t>551285.mp3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>Vermivora chrysoptera</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Flight calls</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>551406.mp3</t>
+          <t>551278.mp3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
+          <t>Vermivora chrysoptera</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2786,35 +2770,39 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>551407.mp3</t>
+          <t>551279.mp3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hooded Warbler</t>
+          <t>Golden-winged Warbler</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Setophaga citrina</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>Vermivora chrysoptera</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>551387.mp3</t>
+          <t>551409.mp3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2826,17 +2814,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>551386.mp3</t>
+          <t>551408.mp3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2848,127 +2836,111 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>551392.mp3</t>
+          <t>551411.mp3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>551391.mp3</t>
+          <t>551410.mp3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>551388.mp3</t>
+          <t>551412.mp3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kentucky Warbler</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Geothlypis formosa</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>551269.mp3</t>
+          <t>551406.mp3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Setophaga citrina</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>551268.mp3</t>
+          <t>551407.mp3</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Hooded Warbler</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Calls</t>
-        </is>
-      </c>
+          <t>Setophaga citrina</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>551263.mp3</t>
+          <t>551387.mp3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2980,17 +2952,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>551262.mp3</t>
+          <t>551386.mp3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3002,83 +2974,79 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>551266.mp3</t>
+          <t>551392.mp3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>551267.mp3</t>
+          <t>551390.mp3</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+          <t>Geothlypis formosa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>551265.mp3</t>
+          <t>551391.mp3</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>551264.mp3</t>
+          <t>551388.mp3</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Louisiana Waterthrush</t>
+          <t>Kentucky Warbler</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Parkesia motacilla</t>
+          <t>Geothlypis formosa</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3090,7 +3058,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>551270.mp3</t>
+          <t>551269.mp3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3105,82 +3073,90 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>551447.mp3</t>
+          <t>551268.mp3</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>551453.mp3</t>
+          <t>551263.mp3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>Parkesia motacilla</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>551452.mp3</t>
+          <t>551262.mp3</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>Parkesia motacilla</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>551446.mp3</t>
+          <t>551266.mp3</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3192,95 +3168,95 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>551450.mp3</t>
+          <t>551267.mp3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>551451.mp3</t>
+          <t>551265.mp3</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>551454.mp3</t>
+          <t>551264.mp3</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>551448.mp3</t>
+          <t>551270.mp3</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Magnolia Warbler</t>
+          <t>Louisiana Waterthrush</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Setophaga magnolia</t>
+          <t>Parkesia motacilla</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>551449.mp3</t>
+          <t>551447.mp3</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3302,183 +3278,175 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>551381.mp3</t>
+          <t>551453.mp3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga magnolia</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>551380.mp3</t>
+          <t>551452.mp3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga magnolia</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>551382.mp3</t>
+          <t>551446.mp3</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>551383.mp3</t>
+          <t>551450.mp3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>551378.mp3</t>
+          <t>551451.mp3</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Calls</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>551379.mp3</t>
+          <t>551454.mp3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>551384.mp3</t>
+          <t>551448.mp3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>551385.mp3</t>
+          <t>551449.mp3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mourning Warbler</t>
+          <t>Magnolia Warbler</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Geothlypis philadelphia</t>
+          <t>Setophaga magnolia</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>551377.mp3</t>
+          <t>551381.mp3</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3500,7 +3468,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>551376.mp3</t>
+          <t>551380.mp3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3522,7 +3490,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>551374.mp3</t>
+          <t>551382.mp3</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3537,14 +3505,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>551375.mp3</t>
+          <t>551383.mp3</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3559,170 +3527,190 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>551342.mp3</t>
+          <t>551378.mp3</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Song (ruficapilla)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>551343.mp3</t>
+          <t>551379.mp3</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>551354.mp3</t>
+          <t>551384.mp3</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tink calls (ridgwayi)</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>551350.mp3</t>
+          <t>551385.mp3</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
+          <t>Geothlypis philadelphia</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Song (ridgwayi)</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>551344.mp3</t>
+          <t>551377.mp3</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>551345.mp3</t>
+          <t>551376.mp3</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>551351.mp3</t>
+          <t>551374.mp3</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>551347.mp3</t>
+          <t>551375.mp3</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nashville Warbler</t>
+          <t>Mourning Warbler</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Leiothlypis ruficapilla</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>Geothlypis philadelphia</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>551353.mp3</t>
+          <t>551342.mp3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3735,12 +3723,16 @@
           <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Song (ruficapilla)</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>551352.mp3</t>
+          <t>551343.mp3</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3758,7 +3750,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>551346.mp3</t>
+          <t>551354.mp3</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3771,12 +3763,16 @@
           <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Tink calls (ridgwayi)</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>551348.mp3</t>
+          <t>551350.mp3</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3789,12 +3785,16 @@
           <t>Leiothlypis ruficapilla</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Song (ridgwayi)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>551349.mp3</t>
+          <t>551344.mp3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3812,193 +3812,161 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>551444.mp3</t>
+          <t>551345.mp3</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>551445.mp3</t>
+          <t>551351.mp3</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>551441.mp3</t>
+          <t>551347.mp3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>551440.mp3</t>
+          <t>551353.mp3</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>551442.mp3</t>
+          <t>551352.mp3</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>551443.mp3</t>
+          <t>551346.mp3</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Dawn song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>551439.mp3</t>
+          <t>551348.mp3</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Northern Parula</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Setophaga americana</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>551274.mp3</t>
+          <t>551349.mp3</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Nashville Warbler</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Flight song</t>
-        </is>
-      </c>
+          <t>Leiothlypis ruficapilla</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>551275.mp3</t>
+          <t>551444.mp3</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4010,17 +3978,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>551277.mp3</t>
+          <t>551445.mp3</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4032,39 +4000,39 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>551276.mp3</t>
+          <t>551441.mp3</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>551272.mp3</t>
+          <t>551440.mp3</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4076,17 +4044,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>551273.mp3</t>
+          <t>551442.mp3</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4098,167 +4066,171 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>551271.mp3</t>
+          <t>551443.mp3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Northern Waterthrush</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Parkesia noveboracensis</t>
+          <t>Setophaga americana</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Dawn song</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>551325.mp3</t>
+          <t>551439.mp3</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Orange-crowned Warbler</t>
+          <t>Northern Parula</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Leiothlypis celata</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>Setophaga americana</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>551254.mp3</t>
+          <t>551274.mp3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Flight song</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>551253.mp3</t>
+          <t>551275.mp3</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tink calls</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>551252.mp3</t>
+          <t>551277.mp3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>551250.mp3</t>
+          <t>551276.mp3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>551251.mp3</t>
+          <t>551272.mp3</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Flight song</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>551249.mp3</t>
+          <t>551273.mp3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ovenbird</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Seiurus aurocapilla</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4270,39 +4242,39 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>551497.mp3</t>
+          <t>551271.mp3</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Northern Waterthrush</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Parkesia noveboracensis</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Song (Western)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>551506.mp3</t>
+          <t>551325.mp3</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Orange-crowned Warbler</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
+          <t>Leiothlypis celata</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -4310,115 +4282,139 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>551499.mp3</t>
+          <t>551254.mp3</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>Seiurus aurocapilla</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Flight calls</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>551498.mp3</t>
+          <t>551253.mp3</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>Seiurus aurocapilla</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Tink calls</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>551507.mp3</t>
+          <t>551252.mp3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>Seiurus aurocapilla</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Chip calls</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>551505.mp3</t>
+          <t>551250.mp3</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>Seiurus aurocapilla</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>551504.mp3</t>
+          <t>551251.mp3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>Seiurus aurocapilla</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Flight song</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>551500.mp3</t>
+          <t>551249.mp3</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Palm Warbler</t>
+          <t>Ovenbird</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Setophaga palmarum</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>Seiurus aurocapilla</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>551501.mp3</t>
+          <t>551497.mp3</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4431,12 +4427,16 @@
           <t>Setophaga palmarum</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Song (Western)</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>551503.mp3</t>
+          <t>551506.mp3</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4454,7 +4454,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>551502.mp3</t>
+          <t>551499.mp3</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4472,17 +4472,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>551508.mp3</t>
+          <t>551498.mp3</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -4490,17 +4490,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>538325.mp3</t>
+          <t>551507.mp3</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -4508,17 +4508,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>551512.mp3</t>
+          <t>551505.mp3</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -4526,17 +4526,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>551513.mp3</t>
+          <t>551504.mp3</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -4544,17 +4544,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>551510.mp3</t>
+          <t>551500.mp3</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -4562,17 +4562,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>551514.mp3</t>
+          <t>551501.mp3</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -4580,17 +4580,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>551515.mp3</t>
+          <t>551503.mp3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pine Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Setophaga pinus</t>
+          <t>Setophaga palmarum</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -4598,171 +4598,143 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>551544.mp3</t>
+          <t>551502.mp3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Palm Warbler</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga palmarum</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>551545.mp3</t>
+          <t>551509.mp3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Chip calls</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>551547.mp3</t>
+          <t>551508.mp3</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Flight calls</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>551546.mp3</t>
+          <t>538325.mp3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>551542.mp3</t>
+          <t>551512.mp3</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>551543.mp3</t>
+          <t>551513.mp3</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>551541.mp3</t>
+          <t>551511.mp3</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Prairie Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Setophaga discolor</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>551308.mp3</t>
+          <t>551510.mp3</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Prothonotary Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Protonotaria citrea</t>
+          <t>Setophaga pinus</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -4770,39 +4742,35 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>551301.mp3</t>
+          <t>551514.mp3</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Prothonotary Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Setophaga pinus</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>551302.mp3</t>
+          <t>551515.mp3</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Prothonotary Warbler</t>
+          <t>Pine Warbler</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Protonotaria citrea</t>
+          <t>Setophaga pinus</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -4810,111 +4778,127 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>551304.mp3</t>
+          <t>551544.mp3</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Prothonotary Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Protonotaria citrea</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>551321.mp3</t>
+          <t>551545.mp3</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Chip calls</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>551320.mp3</t>
+          <t>551547.mp3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>551322.mp3</t>
+          <t>551546.mp3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Tink calls</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>551324.mp3</t>
+          <t>551542.mp3</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>551319.mp3</t>
+          <t>551543.mp3</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tennessee Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Leiothlypis peregrina</t>
+          <t>Setophaga discolor</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4926,255 +4910,227 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>551618.mp3</t>
+          <t>551541.mp3</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prairie Warbler</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>Setophaga discolor</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>551608.mp3</t>
+          <t>551309.mp3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>551609.mp3</t>
+          <t>551308.mp3</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Chip calls (pileolata)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>551607.mp3</t>
+          <t>551301.mp3</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
+          <t>Protonotaria citrea</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Song (pileolata)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>551612.mp3</t>
+          <t>551303.mp3</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>551606.mp3</t>
+          <t>551302.mp3</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Song (pileolata)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>551610.mp3</t>
+          <t>551306.mp3</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>551611.mp3</t>
+          <t>551305.mp3</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Song (pusilla)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>551615.mp3</t>
+          <t>551304.mp3</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Prothonotary Warbler</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
+          <t>Protonotaria citrea</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>551614.mp3</t>
+          <t>551321.mp3</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Song (chryseola)</t>
-        </is>
-      </c>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>551616.mp3</t>
+          <t>551320.mp3</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
+          <t>Leiothlypis peregrina</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Song (chryseola)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>551617.mp3</t>
+          <t>551322.mp3</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Wilson's Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Cardellina pusilla</t>
+          <t>Leiothlypis peregrina</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -5182,475 +5138,467 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>551255.mp3</t>
+          <t>551323.mp3</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>551256.mp3</t>
+          <t>551324.mp3</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Song</t>
-        </is>
-      </c>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>551257.mp3</t>
+          <t>551319.mp3</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Tennessee Warbler</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>Leiothlypis peregrina</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>551260.mp3</t>
+          <t>551618.mp3</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Tink calls</t>
-        </is>
-      </c>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>551261.mp3</t>
+          <t>551608.mp3</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>551259.mp3</t>
+          <t>551609.mp3</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Chip calls</t>
+          <t>Chip calls (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>551258.mp3</t>
+          <t>551607.mp3</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Worm-eating Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Helmitheros vermivorum</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Song (pileolata)</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>536959.mp3</t>
+          <t>551612.mp3</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Song (pusilla)</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>536958.mp3</t>
+          <t>551606.mp3</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Song (Golden)</t>
+          <t>Song (pileolata)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>542001.mp3</t>
+          <t>551610.mp3</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Calls (Galapagos)</t>
+          <t>Song (pusilla)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>536960.mp3</t>
+          <t>551611.mp3</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Flight calls (Golden)</t>
+          <t>Song (pusilla)</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>551469.mp3</t>
+          <t>551615.mp3</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Song (Northern)</t>
+          <t>Song (chryseola)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>526843.mp3</t>
+          <t>551614.mp3</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Cardellina pusilla</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Song (Mangrove)</t>
+          <t>Song (chryseola)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>526844.mp3</t>
+          <t>551616.mp3</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Song (chryseola)</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>536953.mp3</t>
+          <t>551617.mp3</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Wilson's Warbler</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
+          <t>Cardellina pusilla</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>551472.mp3</t>
+          <t>551255.mp3</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Flight calls (Northern)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>551473.mp3</t>
+          <t>551256.mp3</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Juvenile calls (Northern)</t>
+          <t>Song</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>536952.mp3</t>
+          <t>551257.mp3</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Song (Northern)</t>
-        </is>
-      </c>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>551471.mp3</t>
+          <t>551260.mp3</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Tink calls (Northern)</t>
+          <t>Tink calls</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>551470.mp3</t>
+          <t>551261.mp3</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Song (Northern)</t>
+          <t>Flight calls</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>536955.mp3</t>
+          <t>551259.mp3</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
+          <t>Helmitheros vermivorum</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Calls (Northern)</t>
+          <t>Chip calls</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>536954.mp3</t>
+          <t>551258.mp3</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Yellow Warbler</t>
+          <t>Worm-eating Warbler</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Setophaga petechia</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Dawn song (Northern)</t>
-        </is>
-      </c>
+          <t>Helmitheros vermivorum</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>532891.mp3</t>
+          <t>536959.mp3</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5663,16 +5611,12 @@
           <t>Setophaga petechia</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Song (Galapagos)</t>
-        </is>
-      </c>
+      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>536957.mp3</t>
+          <t>536958.mp3</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5694,337 +5638,333 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>551533.mp3</t>
+          <t>542001.mp3</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Chip calls (Goldman's)</t>
+          <t>Calls (Galapagos)</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>551527.mp3</t>
+          <t>536960.mp3</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Song (Audubon's)</t>
+          <t>Flight calls (Golden)</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>551526.mp3</t>
+          <t>551469.mp3</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Song (Audubon's)</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>551532.mp3</t>
+          <t>526843.mp3</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Song (Goldman's)</t>
+          <t>Song (Mangrove)</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>551518.mp3</t>
+          <t>526844.mp3</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Song (Myrtle)</t>
-        </is>
-      </c>
+          <t>Setophaga petechia</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>551524.mp3</t>
+          <t>536953.mp3</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Song (Audubon's)</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>551530.mp3</t>
+          <t>551472.mp3</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Flight calls (Audubon's)</t>
+          <t>Flight calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>551531.mp3</t>
+          <t>551473.mp3</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Song (Goldman's)</t>
+          <t>Juvenile calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>551525.mp3</t>
+          <t>536952.mp3</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Song (Audubon's)</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>551519.mp3</t>
+          <t>551471.mp3</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Song (Myrtle)</t>
+          <t>Tink calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>551521.mp3</t>
+          <t>551470.mp3</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Chip calls (Myrtle)</t>
+          <t>Song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>551520.mp3</t>
+          <t>536955.mp3</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Song (Myrtle)</t>
+          <t>Calls (Northern)</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>551522.mp3</t>
+          <t>536954.mp3</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Tink calls (Myrtle)</t>
+          <t>Dawn song (Northern)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>551523.mp3</t>
+          <t>532891.mp3</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Flight calls (Myrtle)</t>
+          <t>Song (Galapagos)</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>551528.mp3</t>
+          <t>536957.mp3</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Yellow-rumped Warbler</t>
+          <t>Yellow Warbler</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Setophaga coronata</t>
+          <t>Setophaga petechia</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Chip calls (Audubon's)</t>
+          <t>Song (Golden)</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>551529.mp3</t>
+          <t>551533.mp3</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6039,14 +5979,14 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Tink calls (Audubon's)</t>
+          <t>Chip calls (Goldman's)</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>551517.mp3</t>
+          <t>551527.mp3</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6061,14 +6001,14 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Song (Myrtle)</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>551516.mp3</t>
+          <t>551526.mp3</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6083,155 +6023,485 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Song (Myrtle)</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>551535.mp3</t>
+          <t>551532.mp3</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Goldman's)</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>551534.mp3</t>
+          <t>551518.mp3</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Myrtle)</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>551536.mp3</t>
+          <t>551524.mp3</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Song (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>551537.mp3</t>
+          <t>551530.mp3</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Dawn song</t>
+          <t>Flight calls (Audubon's)</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>551540.mp3</t>
+          <t>551531.mp3</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
+          <t>Setophaga coronata</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Flight calls</t>
+          <t>Song (Goldman's)</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>551539.mp3</t>
+          <t>551525.mp3</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Yellow-throated Warbler</t>
+          <t>Yellow-rumped Warbler</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Setophaga dominica</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr"/>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Song (Audubon's)</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
+          <t>551519.mp3</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>551521.mp3</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Chip calls (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>551520.mp3</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>551522.mp3</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Tink calls (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>551523.mp3</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Flight calls (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>551528.mp3</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Chip calls (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>551529.mp3</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Tink calls (Audubon's)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>551517.mp3</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>551516.mp3</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Yellow-rumped Warbler</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Setophaga coronata</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Song (Myrtle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>551535.mp3</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>551534.mp3</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>551536.mp3</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>551537.mp3</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Dawn song</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>551540.mp3</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Flight calls</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>551539.mp3</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Yellow-throated Warbler</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Setophaga dominica</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
           <t>551538.mp3</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>Yellow-throated Warbler</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>Setophaga dominica</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="D293" t="inlineStr">
         <is>
           <t>Chip calls</t>
         </is>
